--- a/target/test-classes/Data/Excel/seedTest.xlsx
+++ b/target/test-classes/Data/Excel/seedTest.xlsx
@@ -52,25 +52,25 @@
     <t>Eligibility</t>
   </si>
   <si>
+    <t>eligibilityRequest.json</t>
+  </si>
+  <si>
+    <t>eligibilityResponse.json</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Carrier</t>
+  </si>
+  <si>
+    <t>CarrierRequest.json</t>
+  </si>
+  <si>
+    <t>carrierResponse.json</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>eligibilityRequest.json</t>
-  </si>
-  <si>
-    <t>eligibilityResponse.json</t>
-  </si>
-  <si>
-    <t>TC_03</t>
-  </si>
-  <si>
-    <t>Carrier</t>
-  </si>
-  <si>
-    <t>CarrierRequest.json</t>
-  </si>
-  <si>
-    <t>carrierResponse.json</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -501,30 +501,30 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
